--- a/static/file_meta.xlsx
+++ b/static/file_meta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Entwicklung\TreeEditor\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Entwicklung\MetaNode\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE93AC-906C-49D8-B9FD-B6E95F792559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6EA0C1-706C-4E3F-AC12-2DEB6B209B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>filepath</t>
   </si>
@@ -217,25 +217,64 @@
     <t>widgets/__pycache__/metadata_widget.cpython-311.pyc</t>
   </si>
   <si>
-    <t>Main module, called by main.</t>
-  </si>
-  <si>
     <t>Entry point</t>
   </si>
   <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>Undo manager</t>
-  </si>
-  <si>
-    <t>Registry for Node and Content Schemas. Schemas base on JSON</t>
-  </si>
-  <si>
-    <t>Filter contents by their metadata.</t>
-  </si>
-  <si>
-    <t>Registry for Foldernames</t>
+    <t>Tree structure with undo support</t>
+  </si>
+  <si>
+    <t>Node model with metadata and content</t>
+  </si>
+  <si>
+    <t>Content model with metadata and renderer</t>
+  </si>
+  <si>
+    <t>Metadata handling and (future) validation</t>
+  </si>
+  <si>
+    <t>Filter engine for AND/OR/NOT queries</t>
+  </si>
+  <si>
+    <t>Path registry for key folders</t>
+  </si>
+  <si>
+    <t>JSON schema loader and cache</t>
+  </si>
+  <si>
+    <t>Simple undo/redo stack</t>
+  </si>
+  <si>
+    <t>GUI entry, sets up main layout and actions</t>
+  </si>
+  <si>
+    <t>Tree widget with search, edit, drag&amp;drop</t>
+  </si>
+  <si>
+    <t>Main right panel (metadata + content stack)</t>
+  </si>
+  <si>
+    <t>Single content view with filter + editor</t>
+  </si>
+  <si>
+    <t>Editor for single content (title + text)</t>
+  </si>
+  <si>
+    <t>Multi-content editor with add/delete</t>
+  </si>
+  <si>
+    <t>Manages multiple parallel content views</t>
+  </si>
+  <si>
+    <t>(To be replaced by TreeView editor)</t>
+  </si>
+  <si>
+    <t>Example tree structure for testing</t>
+  </si>
+  <si>
+    <t>JSON schema for node metadata</t>
+  </si>
+  <si>
+    <t>JSON schema for content metadata</t>
   </si>
 </sst>
 </file>
@@ -377,6 +416,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+    <sortCondition ref="A1:A61"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AF83C096-8C5B-40CE-836F-4D048F173FC9}" name="filepath"/>
     <tableColumn id="2" xr3:uid="{D805EAB1-28DC-4517-9770-8847AED0CAA5}" name="include" dataDxfId="0"/>
@@ -673,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,311 +747,299 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1017,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1033,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1041,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1057,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1081,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1097,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1105,162 +1135,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
